--- a/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
+++ b/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\SkillDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424BAEB6-F885-4C24-96E2-65A23CD5D04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1196A7E-6434-4702-BC9D-18AC24D95FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SkillInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>为全体队友造成一回合雷元素附魔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -198,6 +194,57 @@
   </si>
   <si>
     <t>ElectroBuff(待改id)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillChara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属角色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻晴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芭芭拉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill.SkillType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Erupt</t>
+  </si>
+  <si>
+    <t>Coming</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDesc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需充能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +286,13 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -281,27 +335,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -580,46 +634,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="3" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -632,38 +698,50 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -674,228 +752,297 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
         <v>500</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10">
+        <v>501</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
+        <v>5</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>502</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="K8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10">
+        <v>503</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
+        <v>4</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="3">
-        <v>501</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="3">
-        <v>502</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>503</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="L13" s="10" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
+++ b/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\SkillDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1196A7E-6434-4702-BC9D-18AC24D95FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B425591C-4996-43C0-8EBB-96ED4F59E137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卡名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>补充描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -121,10 +117,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>list,effect.EffectInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>effect_type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -193,10 +185,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ElectroBuff(待改id)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SkillChara</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -211,10 +199,6 @@
   <si>
     <t>芭芭拉</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill.SkillType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SkillType</t>
@@ -245,6 +229,18 @@
   </si>
   <si>
     <t>技能类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect.SkillType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,effect.EffectConstructProperties</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -351,12 +347,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -637,7 +632,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,7 +640,7 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="28.875" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
@@ -660,30 +655,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -699,25 +694,25 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -726,19 +721,19 @@
       <c r="F3" s="6"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -749,293 +744,284 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>500</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10">
-        <v>500</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="I5" s="7">
+        <v>606</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>501</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>502</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>503</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7">
+        <v>4</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10">
-        <v>501</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10">
-        <v>5</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10">
-        <v>502</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="10">
-        <v>3</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="10">
-        <v>2</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="10">
-        <v>1</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="10">
-        <v>1</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10">
-        <v>503</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="10">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10">
-        <v>4</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="7" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
+++ b/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\SkillDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubLocalLib\genpai\Luban\Configs\Datas\SkillDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B425591C-4996-43C0-8EBB-96ED4F59E137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343D561-FBAF-4B98-BA82-2AAA1395B98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Self</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>All</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -241,6 +237,10 @@
   </si>
   <si>
     <t>list,effect.EffectConstructProperties</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -632,55 +632,55 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="28.875" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.375" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -694,25 +694,25 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -721,22 +721,22 @@
       <c r="F3" s="6"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,57 +744,57 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>500</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
         <v>606</v>
@@ -803,60 +803,60 @@
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>501</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7">
         <v>5</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>502</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7">
         <v>3</v>
@@ -865,19 +865,19 @@
         <v>6</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="7">
         <v>2</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -888,19 +888,19 @@
         <v>6</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -911,19 +911,19 @@
         <v>6</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -934,19 +934,19 @@
         <v>6</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J10" s="7">
         <v>1</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -957,19 +957,19 @@
         <v>6</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -980,49 +980,49 @@
         <v>6</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>503</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7">
         <v>2</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7">
         <v>4</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
+++ b/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25407"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubLocalLib\genpai\Luban\Configs\Datas\SkillDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\SkillDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343D561-FBAF-4B98-BA82-2AAA1395B98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27354479-FF92-4485-89B6-0624B0FD2666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="350" yWindow="4820" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -241,6 +241,10 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>210​00006</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -632,25 +636,25 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.4140625" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="3" max="4" width="17.9140625" customWidth="1"/>
+    <col min="5" max="5" width="13.9140625" customWidth="1"/>
+    <col min="6" max="6" width="28.9140625" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.9140625" customWidth="1"/>
+    <col min="10" max="10" width="10.4140625" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -680,7 +684,7 @@
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -710,7 +714,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -736,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,9 +778,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
-        <v>500</v>
+        <v>20000000</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>31</v>
@@ -796,8 +800,8 @@
       <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="7">
-        <v>606</v>
+      <c r="I5" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
@@ -809,58 +813,48 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="26" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
-        <v>501</v>
+        <v>20000001</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J6" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
-        <v>502</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="7">
-        <v>3</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
@@ -868,16 +862,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -900,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -923,7 +917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -946,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -969,32 +963,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>20000002</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
       <c r="H12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
-        <v>503</v>
+        <v>20000003</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>33</v>
@@ -1032,7 +1036,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1042,7 +1046,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
+++ b/Luban/Configs/Datas/SkillDatas/CharaSkills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\SkillDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27354479-FF92-4485-89B6-0624B0FD2666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDCF23B-8E04-44AF-B600-96D0D0398B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="4820" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12950" yWindow="4100" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -247,12 +247,75 @@
     <t>210​00006</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>阿贝多</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>砂糖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标附加2层[护甲]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为目标附加6层[护甲]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anemo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtf1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtf2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtf3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtf4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +359,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -335,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -356,6 +434,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -633,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1027,6 +1106,140 @@
       </c>
       <c r="L13" s="7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>20000004</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>20000005</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7">
+        <v>2</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>20000006</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>20000007</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
